--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2081107.621068288</v>
+        <v>2076802.498071217</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>88.09081815943081</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>48.47711506061737</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.23526332407467</v>
+        <v>17.6314574668482</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.21594625443468</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.00402729331205</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>50.32246077457405</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>164.2842029590031</v>
       </c>
       <c r="G5" t="n">
         <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772759994</v>
+        <v>92.85788772760006</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425833</v>
+        <v>23.94240680425852</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372553</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937492</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843605</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>62.68615226564526</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>123.31078718195</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>36.85894767157538</v>
+        <v>128.3747539002429</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.9111576058912</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708287</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>101.7193288485413</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>223.994091951257</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904879</v>
+        <v>20.27697994470845</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>28.39409271529086</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923915</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>46.92811056263761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>125.0721477169169</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444117</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>28.5400493088928</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>204.2584534680972</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890321</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576144</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>19.86507844888251</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.255571502166409</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771006</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.71385496658219</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983373</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>39.19314274110375</v>
+        <v>87.21471514852855</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>112.7606860319981</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>102.041750371295</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856555</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>28.54004930889236</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>21.63824106824964</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>206.439963839736</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>159.3471710336505</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3319,7 +3319,7 @@
         <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.619672595752471</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.421048022936</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>150.4550614441482</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>28.23631843387988</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.7631841214229</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097407</v>
+        <v>540.7559564928858</v>
       </c>
       <c r="C2" t="n">
-        <v>482.8222414097407</v>
+        <v>540.7559564928858</v>
       </c>
       <c r="D2" t="n">
-        <v>482.8222414097407</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="E2" t="n">
-        <v>293.4024563932559</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="F2" t="n">
-        <v>103.9826713767711</v>
+        <v>344.3906707271974</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>331.1605361513812</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262255</v>
+        <v>701.1355657757678</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262255</v>
+        <v>540.7559564928858</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262255</v>
+        <v>540.7559564928858</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262255</v>
+        <v>540.7559564928858</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262255</v>
+        <v>540.7559564928858</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262255</v>
+        <v>540.7559564928858</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097407</v>
+        <v>540.7559564928858</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097407</v>
+        <v>540.7559564928858</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.9896342275476</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="C3" t="n">
-        <v>161.5366049464206</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464206</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
         <v>161.5366049464206</v>
@@ -4412,49 +4412,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476353</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264281</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810244</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810244</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="U3" t="n">
-        <v>525.6547321810244</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="V3" t="n">
-        <v>525.6547321810244</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="W3" t="n">
-        <v>504.2049712476157</v>
+        <v>659.1282546296122</v>
       </c>
       <c r="X3" t="n">
-        <v>504.2049712476157</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="Y3" t="n">
-        <v>504.2049712476157</v>
+        <v>469.7084696131274</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404147</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404147</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404147</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404147</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404147</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404147</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404147</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404147</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404147</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>709.3965921992919</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>725.3468614886974</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>748.7753949309537</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R4" t="n">
-        <v>29.24882464404147</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S4" t="n">
-        <v>29.24882464404147</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T4" t="n">
-        <v>29.24882464404147</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U4" t="n">
-        <v>29.24882464404147</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V4" t="n">
-        <v>29.24882464404147</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W4" t="n">
-        <v>29.24882464404147</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="X4" t="n">
-        <v>29.24882464404147</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.24882464404147</v>
+        <v>750.1023486652803</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.718566540667</v>
+        <v>710.7135870446898</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.718566540667</v>
+        <v>710.7135870446898</v>
       </c>
       <c r="D5" t="n">
-        <v>1652.887798081502</v>
+        <v>710.7135870446898</v>
       </c>
       <c r="E5" t="n">
-        <v>1267.099545483257</v>
+        <v>710.7135870446898</v>
       </c>
       <c r="F5" t="n">
-        <v>856.1136406936497</v>
+        <v>544.7699476921614</v>
       </c>
       <c r="G5" t="n">
-        <v>439.6975955077412</v>
+        <v>128.3539025062529</v>
       </c>
       <c r="H5" t="n">
         <v>128.3539025062529</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675796</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="J5" t="n">
-        <v>111.670553901723</v>
+        <v>111.6705539017229</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166747004</v>
+        <v>277.9807166747</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030809</v>
+        <v>521.20494160308</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709248</v>
+        <v>823.5081935709231</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582761</v>
+        <v>1135.316836582758</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079251</v>
+        <v>1416.413635079248</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332771</v>
+        <v>1621.822248332767</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837898</v>
+        <v>1727.902815837894</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540667</v>
+        <v>1703.718566540664</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540667</v>
+        <v>1562.810726301012</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540667</v>
+        <v>1350.951391437447</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540667</v>
+        <v>1097.313427108812</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540667</v>
+        <v>1097.313427108812</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.718566540667</v>
+        <v>1097.313427108812</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.718566540667</v>
+        <v>1097.313427108812</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.718566540667</v>
+        <v>1097.313427108812</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>401.703930460525</v>
+        <v>663.7175082377067</v>
       </c>
       <c r="C6" t="n">
-        <v>227.2509011793981</v>
+        <v>489.2644789565797</v>
       </c>
       <c r="D6" t="n">
-        <v>78.31649151814678</v>
+        <v>340.3300692953284</v>
       </c>
       <c r="E6" t="n">
-        <v>78.31649151814678</v>
+        <v>181.0926142898729</v>
       </c>
       <c r="F6" t="n">
-        <v>78.31649151814678</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="G6" t="n">
-        <v>78.31649151814678</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814678</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675796</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787625</v>
+        <v>61.66788464787601</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806084</v>
+        <v>186.1577239806078</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171190014</v>
+        <v>399.8722171190005</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223554</v>
+        <v>668.623818522354</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352549</v>
+        <v>958.8971200352531</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228327</v>
+        <v>1202.220686228325</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639518</v>
+        <v>1378.176233639516</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.87866090656</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.87866090656</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="S6" t="n">
-        <v>1303.087768902155</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="T6" t="n">
-        <v>1303.087768902155</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="U6" t="n">
-        <v>1303.087768902155</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="V6" t="n">
-        <v>1239.768423179281</v>
+        <v>1210.726552674815</v>
       </c>
       <c r="W6" t="n">
-        <v>985.5310664510798</v>
+        <v>956.4891959466131</v>
       </c>
       <c r="X6" t="n">
-        <v>777.679566245547</v>
+        <v>831.9328452577747</v>
       </c>
       <c r="Y6" t="n">
-        <v>569.9192674805931</v>
+        <v>831.9328452577747</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858054</v>
+        <v>332.535052004096</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495858054</v>
+        <v>332.535052004096</v>
       </c>
       <c r="D7" t="n">
-        <v>219.7024101734696</v>
+        <v>332.535052004096</v>
       </c>
       <c r="E7" t="n">
-        <v>71.78931659107653</v>
+        <v>332.535052004096</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675796</v>
+        <v>202.863583417992</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675796</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675796</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675796</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675796</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574782</v>
+        <v>64.24066662574759</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584133</v>
+        <v>132.1299861584129</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347998</v>
+        <v>206.9680378347992</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195401</v>
+        <v>287.8841338195393</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193476</v>
+        <v>342.310156193475</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858054</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858054</v>
+        <v>332.535052004096</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858054</v>
+        <v>332.535052004096</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858054</v>
+        <v>332.535052004096</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858054</v>
+        <v>332.535052004096</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858054</v>
+        <v>332.535052004096</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858054</v>
+        <v>332.535052004096</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858054</v>
+        <v>332.535052004096</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858054</v>
+        <v>332.535052004096</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858054</v>
+        <v>332.535052004096</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>949.3392845809428</v>
+        <v>448.659289385168</v>
       </c>
       <c r="C8" t="n">
-        <v>949.3392845809428</v>
+        <v>448.659289385168</v>
       </c>
       <c r="D8" t="n">
-        <v>949.3392845809428</v>
+        <v>448.659289385168</v>
       </c>
       <c r="E8" t="n">
-        <v>949.3392845809428</v>
+        <v>448.659289385168</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>441.7137886359645</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
         <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809314</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232726</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L8" t="n">
-        <v>669.587892771188</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
         <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S8" t="n">
-        <v>2065.713030087948</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T8" t="n">
-        <v>2065.713030087948</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="U8" t="n">
-        <v>2065.713030087948</v>
+        <v>1782.718007305295</v>
       </c>
       <c r="V8" t="n">
-        <v>2065.713030087948</v>
+        <v>1451.655119961725</v>
       </c>
       <c r="W8" t="n">
-        <v>1712.944374817834</v>
+        <v>1451.655119961725</v>
       </c>
       <c r="X8" t="n">
-        <v>1339.478616556755</v>
+        <v>1225.398461425101</v>
       </c>
       <c r="Y8" t="n">
-        <v>949.3392845809428</v>
+        <v>835.2591294492897</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>671.6177418305251</v>
+        <v>693.0104463829898</v>
       </c>
       <c r="C9" t="n">
-        <v>671.6177418305251</v>
+        <v>518.5574171018628</v>
       </c>
       <c r="D9" t="n">
-        <v>522.6833321692739</v>
+        <v>369.6230074406116</v>
       </c>
       <c r="E9" t="n">
-        <v>363.4458771638183</v>
+        <v>210.3855524351561</v>
       </c>
       <c r="F9" t="n">
-        <v>216.9113191907033</v>
+        <v>63.85099446204103</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581921</v>
+        <v>63.85099446204103</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581921</v>
+        <v>63.85099446204103</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562335</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N9" t="n">
         <v>1166.885386873582</v>
@@ -4907,28 +4907,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T9" t="n">
-        <v>1539.527977446643</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U9" t="n">
-        <v>1311.426387579907</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="V9" t="n">
-        <v>1076.274279348164</v>
+        <v>1531.074939101746</v>
       </c>
       <c r="W9" t="n">
-        <v>1047.593377615547</v>
+        <v>1276.837582373545</v>
       </c>
       <c r="X9" t="n">
-        <v>1047.593377615547</v>
+        <v>1068.986082168012</v>
       </c>
       <c r="Y9" t="n">
-        <v>839.8330788505932</v>
+        <v>861.2257834030579</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>340.8997984420836</v>
+        <v>212.305379466</v>
       </c>
       <c r="C10" t="n">
-        <v>171.9636155141766</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="D10" t="n">
-        <v>171.9636155141766</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="E10" t="n">
-        <v>171.9636155141766</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="F10" t="n">
-        <v>171.9636155141766</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G10" t="n">
-        <v>171.9636155141766</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H10" t="n">
-        <v>171.9636155141766</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934481</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M10" t="n">
         <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O10" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R10" t="n">
-        <v>388.3019303235357</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S10" t="n">
-        <v>340.8997984420836</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T10" t="n">
-        <v>340.8997984420836</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U10" t="n">
-        <v>340.8997984420836</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V10" t="n">
-        <v>340.8997984420836</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W10" t="n">
-        <v>340.8997984420836</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="X10" t="n">
-        <v>340.8997984420836</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Y10" t="n">
-        <v>340.8997984420836</v>
+        <v>393.9538442962397</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168591</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362666</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5050,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>1907.987318831764</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1701.665648661969</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1412.248478625008</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="14">
@@ -5260,52 +5260,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>802.9288273958725</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>633.9926444679656</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978459</v>
+        <v>633.9926444679656</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>486.0795508855725</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.77659230462</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.35942226766</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1205.369871369642</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>984.5772922261123</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5506,61 +5506,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y19" t="n">
-        <v>1178.176104674215</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>988.1395539230126</v>
+        <v>741.8431516380876</v>
       </c>
       <c r="C22" t="n">
-        <v>819.2033709951057</v>
+        <v>572.9069687101808</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487563</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.98731883176</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.98731883176</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1618.5701487948</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.580597896782</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1169.788018753252</v>
+        <v>923.4916164683274</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1863.561397649904</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1608.876909444017</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1319.459739407057</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6226,7 +6226,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075805</v>
@@ -6244,7 +6244,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.043492616109</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2351.089047197418</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2131.487582220359</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2131.487582220359</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075805</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232838</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>559.0424953278207</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1699.462102832032</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1410.044932795071</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1182.055381897054</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>961.2628027535235</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6700,7 +6700,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969311</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>923.4916164683283</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>923.4916164683283</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>773.3749770559925</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>625.4618834735994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>478.571935975689</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516141</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.1865537761979</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>781.250370848291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232885</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,28 +7168,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,16 +7201,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452619</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7347,37 +7347,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580256</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603198</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947395</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,58 +7402,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.388077746847</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928005</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2824.769373306001</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2655.833190378094</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>2655.833190378094</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>2507.920096795701</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>2507.920096795701</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024105</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398592</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053496</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076437</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420635</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.617138214749</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.199968177788</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3227.210417279771</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3006.417838136241</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7675,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249859</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>866.4638174991042</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1268.904861472874</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.973957549141452e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>257.6444250803513</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>47.87918985573077</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>126.5688841976867</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>144.1654765207648</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.1181252153551</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393155</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>109.4223302771086</v>
+        <v>61.4007578696838</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>173.4237883572461</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>77.79022981064226</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>152.4862366927522</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>45.69767948409205</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>6.176967258618305</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.9958004224599</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>101.6825818796798</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>137.287819858389</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>96.94647126761427</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075643</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075643</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516051</v>
@@ -26322,19 +26322,19 @@
         <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752544</v>
@@ -26343,19 +26343,19 @@
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="N2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253163</v>
+        <v>270592.3620253151</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231902</v>
+        <v>115410.054023191</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742641</v>
+        <v>601443.2075742639</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.6376588206</v>
+        <v>62913.63765882028</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197428</v>
+        <v>27875.25362197443</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263452</v>
+        <v>206604.4229263454</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="E4" t="n">
+        <v>16046.58397189209</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16046.58397189209</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16046.58397189207</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16046.58397189205</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16046.58397189208</v>
+      </c>
+      <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="F4" t="n">
-        <v>16046.58397189198</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16046.58397189204</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16046.58397189204</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16046.58397189202</v>
-      </c>
       <c r="K4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189207</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189204</v>
@@ -26456,10 +26456,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189208</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936845</v>
+        <v>76435.73471936838</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.0818558723</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331623.9846149834</v>
+        <v>-331623.9846149837</v>
       </c>
       <c r="C6" t="n">
-        <v>41622.76348057511</v>
+        <v>41622.76348057618</v>
       </c>
       <c r="D6" t="n">
-        <v>220443.1571836452</v>
+        <v>220443.1571836444</v>
       </c>
       <c r="E6" t="n">
-        <v>-133431.0365948086</v>
+        <v>-133778.4158491658</v>
       </c>
       <c r="F6" t="n">
-        <v>468012.1709794555</v>
+        <v>467664.791725098</v>
       </c>
       <c r="G6" t="n">
-        <v>468012.1709794553</v>
+        <v>467664.7917250983</v>
       </c>
       <c r="H6" t="n">
-        <v>468012.1709794557</v>
+        <v>467664.7917250982</v>
       </c>
       <c r="I6" t="n">
-        <v>468012.1709794552</v>
+        <v>467664.7917250982</v>
       </c>
       <c r="J6" t="n">
-        <v>418947.2262509108</v>
+        <v>418599.8469965537</v>
       </c>
       <c r="K6" t="n">
-        <v>405098.5333206346</v>
+        <v>404751.154066278</v>
       </c>
       <c r="L6" t="n">
-        <v>440136.9173574811</v>
+        <v>439789.5381031239</v>
       </c>
       <c r="M6" t="n">
-        <v>310865.7904278576</v>
+        <v>310518.4111735006</v>
       </c>
       <c r="N6" t="n">
-        <v>468012.1709794553</v>
+        <v>467664.7917250986</v>
       </c>
       <c r="O6" t="n">
-        <v>468012.1709794552</v>
+        <v>467664.7917250983</v>
       </c>
       <c r="P6" t="n">
-        <v>468012.1709794555</v>
+        <v>467664.7917250983</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950646</v>
+        <v>758.8996292950638</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594745</v>
+        <v>431.9757039594736</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261642</v>
+        <v>542.1149567261638</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821601</v>
+        <v>210.429688382159</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262028</v>
+        <v>94.81103524262096</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>514.2648358039885</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931546</v>
+        <v>244.4501167931535</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666898</v>
+        <v>110.1392527666902</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734841</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931546</v>
+        <v>244.4501167931533</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666898</v>
+        <v>110.1392527666903</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734839</v>
+        <v>630.5933313734844</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931546</v>
+        <v>244.4501167931535</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666898</v>
+        <v>110.1392527666902</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734841</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>325.0070150706272</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399022</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>28.60460395604635</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>230.459719836845</v>
+        <v>234.0635256940714</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715741</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849658</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
-        <v>112.8183423173783</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>304.3605808461089</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>242.5918427827083</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372552</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246125</v>
+        <v>96.47037835246127</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937498</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074755</v>
+        <v>44.33060630074765</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843605</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
@@ -27754,16 +27754,16 @@
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>170.11443488378</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>82.46219802152747</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>108.5621003513559</v>
+        <v>17.04629412268835</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599128</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.2419391930401</v>
+        <v>30.2419391930402</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589109</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166221</v>
+        <v>115.7603165166222</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130601</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>29.09397986070903</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>145.737008727212</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>16.02248763434035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>223.3008904456287</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>150.2595801969782</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>93.5125056351779</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28313,7 +28313,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>5.094935783612022e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.680972602492868e-12</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28566,10 +28566,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.519060739265741e-12</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28620,19 +28620,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28803,10 +28803,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28851,10 +28851,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29043,19 +29043,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>7.240552984763654e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.807532150152838e-12</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -30285,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30419,7 +30419,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-2.631863191373152e-12</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30756,7 +30756,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085684</v>
+        <v>3.050852781085681</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429378</v>
+        <v>31.24454604429375</v>
       </c>
       <c r="I5" t="n">
-        <v>117.618001842806</v>
+        <v>117.6180018428059</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286714</v>
+        <v>258.9373162286711</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520284</v>
+        <v>388.079914452028</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511796</v>
+        <v>481.4474502511791</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968122</v>
+        <v>535.7030533968116</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610719</v>
+        <v>544.3712888610713</v>
       </c>
       <c r="O5" t="n">
-        <v>514.034371519151</v>
+        <v>514.0343715191506</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860982</v>
+        <v>438.7164434860977</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634669</v>
+        <v>329.4577782634666</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098738</v>
+        <v>191.6431310098736</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774899011</v>
+        <v>69.52130774899004</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920259</v>
+        <v>13.35510804920258</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868547</v>
+        <v>0.2440682224868545</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030894</v>
+        <v>1.632350146030892</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403521</v>
+        <v>15.7650658840352</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062508</v>
+        <v>56.20152915062502</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475943</v>
+        <v>154.2212916475941</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316642</v>
+        <v>263.5887514316639</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721904</v>
+        <v>354.42760517219</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658102</v>
+        <v>413.6002979658097</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468683</v>
+        <v>424.5470671468678</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374469</v>
+        <v>388.3776244374465</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872503</v>
+        <v>311.7072835872499</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547506</v>
+        <v>208.3680642547504</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632164</v>
+        <v>101.3488976632163</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947733</v>
+        <v>30.3201880194773</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378907</v>
+        <v>6.5795165973789</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757167</v>
+        <v>0.1073914569757166</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528237002</v>
+        <v>1.368507528237</v>
       </c>
       <c r="H7" t="n">
-        <v>12.1672760237799</v>
+        <v>12.16727602377988</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734548</v>
+        <v>41.15475366734544</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635601</v>
+        <v>96.75348224635592</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260807</v>
+        <v>158.9956928260805</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162539</v>
+        <v>203.4597465162537</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399147</v>
+        <v>214.5197755399145</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528497</v>
+        <v>209.4189747528495</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275356</v>
+        <v>193.4323186275354</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515006</v>
+        <v>165.5147650515004</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235548</v>
+        <v>114.5938440235546</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054735</v>
+        <v>61.53307486054729</v>
       </c>
       <c r="S7" t="n">
-        <v>23.8493539239121</v>
+        <v>23.84935392391208</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830823</v>
+        <v>5.847259438830817</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656381</v>
+        <v>0.07464586517656374</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,10 +31515,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I8" t="n">
         <v>132.312282993323</v>
@@ -31533,13 +31533,13 @@
         <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P8" t="n">
         <v>493.5262741662302</v>
@@ -31551,10 +31551,10 @@
         <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U8" t="n">
         <v>0.2745602137206622</v>
@@ -31603,16 +31603,16 @@
         <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K9" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L9" t="n">
         <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N9" t="n">
         <v>477.5866858152847</v>
@@ -31621,7 +31621,7 @@
         <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349508</v>
@@ -31673,28 +31673,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M10" t="n">
         <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420141</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595398</v>
@@ -31706,16 +31706,16 @@
         <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>233.3139244897921</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192568</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32466,7 +32466,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
         <v>212.0155798067231</v>
@@ -32475,28 +32475,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32627,7 +32627,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
@@ -32642,13 +32642,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420754</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319857</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420754</v>
@@ -33505,22 +33505,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>279.2419622547064</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663298</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817574</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181837</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742437</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,28 +33970,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>248.74493692092</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>334.7693860946159</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,40 +34444,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>309.7666854143579</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198508</v>
+        <v>77.89141170198479</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070479</v>
+        <v>167.9900634070475</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811924</v>
+        <v>245.6810352811918</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695394</v>
+        <v>305.3568201695389</v>
       </c>
       <c r="N5" t="n">
-        <v>314.958225264481</v>
+        <v>314.9582252644804</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974643</v>
+        <v>283.9361600974638</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308286</v>
+        <v>207.4834477308282</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890175</v>
+        <v>107.1520883890171</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092756</v>
+        <v>27.38366498092739</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573052</v>
+        <v>125.7473124573049</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923162</v>
+        <v>215.8732253923158</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437919</v>
+        <v>271.4662640437914</v>
       </c>
       <c r="N6" t="n">
-        <v>293.205355063535</v>
+        <v>293.2053550635345</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930025</v>
+        <v>245.7813799930021</v>
       </c>
       <c r="P6" t="n">
-        <v>177.73287617292</v>
+        <v>177.7328761729197</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872909</v>
+        <v>68.38629016872886</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554532</v>
+        <v>29.98243465554515</v>
       </c>
       <c r="L7" t="n">
-        <v>68.5750702350156</v>
+        <v>68.5750702350154</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230964</v>
+        <v>75.59399159230941</v>
       </c>
       <c r="N7" t="n">
-        <v>81.7334302876165</v>
+        <v>81.73343028761627</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569276</v>
+        <v>54.97578017569256</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235296</v>
+        <v>27.78676100235279</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L8" t="n">
         <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662057</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974042</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q8" t="n">
         <v>148.3119886183904</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093967</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K9" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L9" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440065</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>94.75954470991793</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359236</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899073</v>
@@ -36296,10 +36296,10 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998938</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754087</v>
@@ -36445,19 +36445,19 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678995</v>
@@ -36688,7 +36688,7 @@
         <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875412</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754087</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>140.6875824748323</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367769</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>101.8925903961654</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410458</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060413</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>200.7949786802857</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>171.2123056344837</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
